--- a/regionseng/11/agriculture/3. Number of livestock.xlsx
+++ b/regionseng/11/agriculture/3. Number of livestock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\მცხეთა-მთიანეთი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\მცხეთა-მთიანეთი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
   <si>
     <t>Beehives (ths. hives)</t>
   </si>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -624,8 +624,10 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -675,8 +677,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,8 +736,14 @@
       <c r="Q3" s="5">
         <v>33.1</v>
       </c>
+      <c r="R3" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="S3" s="5">
+        <v>24.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -781,8 +795,14 @@
       <c r="Q4" s="5">
         <v>15.2</v>
       </c>
+      <c r="R4" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="S4" s="5">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -834,8 +854,12 @@
       <c r="Q5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="R5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -887,8 +911,12 @@
       <c r="Q6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="R6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -940,8 +968,14 @@
       <c r="Q7" s="5">
         <v>60.4</v>
       </c>
+      <c r="R7" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>51.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1027,14 @@
       <c r="Q8" s="5">
         <v>41.6</v>
       </c>
+      <c r="R8" s="5">
+        <v>41.4</v>
+      </c>
+      <c r="S8" s="5">
+        <v>39.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1086,14 @@
       <c r="Q9" s="5">
         <v>3.7</v>
       </c>
+      <c r="R9" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1099,8 +1145,14 @@
       <c r="Q10" s="5">
         <v>1.6</v>
       </c>
+      <c r="R10" s="5">
+        <v>2</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1204,14 @@
       <c r="Q11" s="5">
         <v>336.9</v>
       </c>
+      <c r="R11" s="5">
+        <v>324.2</v>
+      </c>
+      <c r="S11" s="5">
+        <v>167.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1263,12 @@
       <c r="Q12" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="R12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1289,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1250,9 +1312,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
